--- a/data/전처리텍스트_naver/preprocessed_output.xlsx
+++ b/data/전처리텍스트_naver/preprocessed_output.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-ocr-extraction\data\전처리텍스트_naver\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236AD94C-BD28-4210-9CA5-C980AEA81932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -47,80 +53,6 @@
   </si>
   <si>
     <t>토익.png</t>
-  </si>
-  <si>
-    <t>국민건강보험공단
-WWW
-1/1
-발급번호 :
-G202312030101652
-건강보험자격득실확인서
-성명
-주민등록번호
-확인청구자
-김소한
-980215-2
-자격득실확인내역
-No
-가입자구분
-사업장명칭
-자격취득일
-자격상실일
-1
-직장가입자
-코레일유통주식회사
-2023.06.01
-2
-직장가입자
-한국농수산식품유통공사
-2022.11.21
-2023.02.21
-이하여백
-S
-그
-e
-(
-&lt; 건 강
-건강보험
-자격득실내역을
-위와 같이 확인합니다.
-2023.12.03
-국민건강보험공단
-이사장
-akida
-이
-확인서의
-취득일·상실일은
-실제의
-사업장
-입사일.퇴직일과 다를수 있습니다.
-이
-확인서는
-국민건강보험공단
-인터넷
-홈페이지(www.nhis.or.kr)
-및
-모바일앱(The건강보험)에서
-직접
-발급이
-가능합니다.
-이
-확인서는
-건강보험
-자격확인용이므로
-다른
-용도(재직증명용,
-경력증명용,
-대출용
-등)
-로
-사용
-시
-공단에
-법적인
-책임이
-없음을
-알려드립니다.</t>
   </si>
   <si>
     <t>정확인
@@ -222,95 +154,6 @@
 하실
 수
 있습니다.</t>
-  </si>
-  <si>
-    <t>국민연금공단
-NPS
-함께
-나누고
-함께
-누려요
-nagor.kr
-(1/2 페이지)
-국민연금
-가입자
-가입증명
-발급번호
-20231203-H201-88732
-발급일자
-2023-12-03
-검증번호
-51E9
-성명
-황성윤
-생년월일
-2002-12-25
-출력구분
-전체이력
-가입이력
-자격유지기간
-가입자종별
-사업장명칭(지역)
-2022.09.01 ~ 현 재
-사업장
-한국수목원정원관리원
-2020.12.26~2022.08.31
-사업장
-한국수목원정원관리원
-가입자 자격 상세내역
-사업장명칭 (지역)
-가입자종별
-변동사유
-변동일
-처리일
-한국수목원정원관리원
-사업장
-취득
-2022-09-01
-2022-09-08
-한국수목원정원관리원
-사업장
-상실
-2022-09-01
-2022-09-06
-한국수목원정원관리원
-사업장
-내용정정(취득일)
-2020-12-26
-2021-01-26
-한국수목원정원관리원
-사업장
-취득
-2021-01-01
-2021-01-25
-사업장명칭변경내역
-변동일
-변동항목
-변경전 명칭
-변경후 명칭
-처리일
-2021-06-30
-사업장명칭
-한국수목원관리원
-한국수목원정원관리원
-2021-07-20
-본
-이
-증명서는
-국민연금
-홈페이지(http://www.nps.or.kr)에서
-발급된
-문서입니다.
-발급문서의
-진위여부
-확인은
-국민연금
-홈페이지[
-[전자민원&gt;인터넷
-발급증명서
-진위확인]을
-이용하시기
-바랍니다.</t>
   </si>
   <si>
     <t>정부24
@@ -2314,16 +2157,180 @@
 TOEIC
 M</t>
   </si>
+  <si>
+    <t>국민건강보험공단
+WWW
+1/1
+발급번호 :
+G202312030101652
+건강보험자격득실확인서
+성명
+주민등록번호
+확인청구자
+김소한
+980215-2
+자격득실확인내역
+No
+가입자구분
+사업장명칭
+자격취득일
+자격상실일
+1
+직장가입자
+코레일유통주식회사
+2023.06.01
+2
+직장가입자
+한국농수산식품유통공사
+2022.11.21
+2023.02.21
+이하여백
+S
+그
+e
+(
+&lt; 건 강
+건강보험
+자격득실내역을
+위와 같이 확인합니다.
+2023.12.03
+국민건강보험공단
+이사장
+akida
+이
+확인서의
+취득일·상실일은
+실제의
+사업장
+입사일.퇴직일과 다를수 있습니다.
+이
+확인서는
+국민건강보험공단
+인터넷
+홈페이지(www.nhis.or.kr)
+및
+모바일앱(The건강보험)에서
+직접
+발급이
+가능합니다.
+이
+확인서는
+건강보험
+자격확인용이므로
+다른
+용도(재직증명용,
+경력증명용,
+대출용
+등)
+로
+사용
+시
+공단에
+법적인
+책임이
+없음을
+알려드립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금공단
+NPS
+함께
+나누고
+함께
+누려요
+nagor.kr
+(1/2 페이지)
+국민연금가입자
+가입증명
+발급번호
+20231203-H201-88732
+발급일자
+2023-12-03
+검증번호
+51E9
+성명
+황성윤
+생년월일
+2002-12-25
+출력구분
+전체이력
+가입이력
+자격유지기간
+가입자종별
+사업장명칭(지역)
+2022.09.01 ~ 현 재
+사업장
+한국수목원정원관리원
+2020.12.26~2022.08.31
+사업장
+한국수목원정원관리원
+가입자 자격 상세내역
+사업장명칭 (지역)
+가입자종별
+변동사유
+변동일
+처리일
+한국수목원정원관리원
+사업장
+취득
+2022-09-01
+2022-09-08
+한국수목원정원관리원
+사업장
+상실
+2022-09-01
+2022-09-06
+한국수목원정원관리원
+사업장
+내용정정(취득일)
+2020-12-26
+2021-01-26
+한국수목원정원관리원
+사업장
+취득
+2021-01-01
+2021-01-25
+사업장명칭변경내역
+변동일
+변동항목
+변경전 명칭
+변경후 명칭
+처리일
+2021-06-30
+사업장명칭
+한국수목원관리원
+한국수목원정원관리원
+2021-07-20
+본
+이
+증명서는
+국민연금
+홈페이지(http://www.nps.or.kr)에서
+발급된
+문서입니다.
+발급문서의
+진위여부
+확인은
+국민연금
+홈페이지[
+[전자민원&gt;인터넷
+발급증명서
+진위확인]을
+이용하시기
+바랍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2331,8 +2338,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2371,24 +2385,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2426,7 +2451,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2460,6 +2485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2494,9 +2520,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2669,14 +2696,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2684,79 +2713,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>